--- a/branches/master/observations-summary.xlsx
+++ b/branches/master/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,45 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>covid19-death</t>
+  </si>
+  <si>
+    <t>Covid19 Death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SNOMED CT#419099009</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>covid19-long-covid-post-covid</t>
+  </si>
+  <si>
+    <t>Covid19 Long Covid / Post-Covid</t>
+  </si>
+  <si>
+    <t>SNOMED CT#1119303003</t>
+  </si>
+  <si>
+    <t>covid19-recovered-or-symptoms-resolved</t>
+  </si>
+  <si>
+    <t>Covid19 Recovered Or Symptoms Resolved</t>
+  </si>
+  <si>
+    <t>SNOMED CT#370996005</t>
   </si>
 </sst>
 </file>
@@ -178,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +258,111 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/branches/master/observations-summary.xlsx
+++ b/branches/master/observations-summary.xlsx
@@ -50,7 +50,7 @@
     <t>covid19-death</t>
   </si>
   <si>
-    <t>Covid19 Death</t>
+    <t>Death</t>
   </si>
   <si>
     <t/>
@@ -71,7 +71,7 @@
     <t>covid19-long-covid-post-covid</t>
   </si>
   <si>
-    <t>Covid19 Long Covid / Post-Covid</t>
+    <t>Long Covid / Post-Covid</t>
   </si>
   <si>
     <t>SNOMED CT#1119303003</t>
@@ -80,7 +80,7 @@
     <t>covid19-recovered-or-symptoms-resolved</t>
   </si>
   <si>
-    <t>Covid19 Recovered Or Symptoms Resolved</t>
+    <t>Recovered Or Symptoms Resolved</t>
   </si>
   <si>
     <t>SNOMED CT#370996005</t>
